--- a/dictionaries/outcome_ath/1_0/1_0_yearly_rep.xlsx
+++ b/dictionaries/outcome_ath/1_0/1_0_yearly_rep.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\back\ATHLETE\HARMO\20220613_dicts\extender_outcomes_ath\respuestas16dic2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{72168D03-45E0-47BF-9F2B-1C4F2E085D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64085ADC-E53C-4723-82A7-4C15C668D291}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{72168D03-45E0-47BF-9F2B-1C4F2E085D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47B931F7-35B7-48F7-9B02-52E6415350D5}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="-6600" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33600" yWindow="-6600" windowWidth="28800" windowHeight="15840" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
     <t>numeric</t>
   </si>
   <si>
-    <t>Unique identifer for the row in Opal</t>
+    <t>Unique identifier for the row in Opal</t>
   </si>
   <si>
     <t>child_id</t>
@@ -134,7 +134,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>Unique identifer for the child</t>
+    <t>Unique identifier for the child</t>
   </si>
   <si>
     <t>age_years</t>
@@ -1253,8 +1253,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
@@ -2417,7 +2417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/dictionaries/outcome_ath/1_0/1_0_yearly_rep.xlsx
+++ b/dictionaries/outcome_ath/1_0/1_0_yearly_rep.xlsx
@@ -594,7 +594,7 @@
     <t xml:space="preserve">mrihff_</t>
   </si>
   <si>
-    <t xml:space="preserve">%</t>
+    <t xml:space="preserve">percent</t>
   </si>
   <si>
     <t xml:space="preserve">Repeated measures of child’s mean hepatic fat-fraction  measured using MRI: mrihff_: assessed within one year of childbirth (&gt;0 year and &lt;1 year) mrihff_1: assessed when the child was aged between bigger or equal to 1 year and &lt; 2 years … mrihff_17: assessed when the child was aged between bigger or equal to 17 years and &lt; 18 years</t>
@@ -867,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B52" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
